--- a/nota_fiscal/nota_fiscal.xlsx
+++ b/nota_fiscal/nota_fiscal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,240 +448,528 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AZEITE EV ESPANHOL</t>
+          <t>QJO MUSS ITALAC FAT  (Cód: )</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AZEITE</t>
+          <t>QJO</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ESPAGUETE SEMOLA</t>
+          <t>BANANA NANICA KG (Cód: )</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ESPAGUETE</t>
+          <t>BANANA</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PASSATA POMODORO</t>
+          <t>CARNE DE SOL COXAO DURO BOV VD KG (Cód: )</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PASSATA</t>
+          <t>CARNE</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>QJ PARMESAO F AZUL C</t>
+          <t>BIFE COXAO MOLE BOV VD KG (Cód: )</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>QJ</t>
+          <t>BIFE</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MUSSARELA FATIADO</t>
+          <t>BIFE COXAO MOLE BOV VD KG (Cód: )</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MUSSARELA</t>
+          <t>BIFE</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BURGUER FILE D COSTE</t>
+          <t>AGUA SANIT QBOA  (Cód: )</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BURGUER</t>
+          <t>AGUA</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FILTRO DE PAPEL</t>
+          <t>BANANA NANICA KG (Cód: )</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FILTRO</t>
+          <t>BANANA</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DISH WASHER LAVA LOU</t>
+          <t>MACA GALA KG (Cód: )</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DISH</t>
+          <t>MACA</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>KETCHUP HEINZ .</t>
+          <t>LIMP PERF VEJA  JASMIM DO CARIBE (Cód: )</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>KETCHUP</t>
+          <t>LIMP</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CERV QUILMES CLASSIC</t>
+          <t>OLEO SOJA LIZA  (Cód: )</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CERV</t>
+          <t>OLEO</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MOLHO PESTO GENOVESE</t>
+          <t>LAVA ROUPAS PO TIXAN L P, PRIMAV (Cód: )</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MOLHO</t>
+          <t>LAVA</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PIZZA GDE CALABRESA</t>
+          <t>CAFE MELITTA VACUO  TRAD (Cód: )</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PIZZA</t>
+          <t>CAFE</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BARILLA FUSILLI</t>
+          <t>REFRI COCA COLA SEM ACUCAR  (Cód: )</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BARILLA</t>
+          <t>REFRI</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PAPEL TOALHA MILI FD</t>
+          <t>CERV HEINEKEN LT  P MALTE (Cód: )</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PAPEL</t>
+          <t>CERV</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MM LAVA ROUPAS</t>
+          <t>BOMBOM CAIXA LACTA , BRAND MIX (Cód: )</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MM</t>
+          <t>BOMBOM</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>VEJA POWERFUSION</t>
+          <t>AMAC CONC COMFORT , FRESCOR INTENSO (Cód: )</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>VEJA</t>
+          <t>AMAC</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>VEJA COZINHA LIMAO</t>
+          <t>SALG CROCANTISSIMO  CHURR (Cód: )</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>VEJA</t>
+          <t>SALG</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>QBOA  AGUA SANITA</t>
+          <t>SALG CROCANTISSIMO  PEITO PERUREQUEI (Cód: )</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>QBOA</t>
+          <t>SALG</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PASSA FACIL F</t>
+          <t>GOIABADA PREDILECTA FLOW PACK , (Cód: )</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PASSA</t>
+          <t>GOIABADA</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>YPE LIQ  DETE</t>
+          <t>PAPEL MANTEIGA LUMIPAM , (Cód: )</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>YPE</t>
+          <t>PAPEL</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>PAPEL MANTEIGA LUMIPAM , (Cód: )</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>PAPEL</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>BATATA CHIRUCA  CRCEB (Cód: )</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>BATATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>LEITE PO NINHO PROM LT  INTG (Cód: )</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>LEITE</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ESPONJA LA DE ACO BOMBRIL  (Cód: )</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ESPONJA</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ACUCAR UNIAO NATURALE  (Cód: )</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ACUCAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>GUARDANAPO MAXIM   (Cód: )</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>GUARDANAPO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>SALG CROCANTISSIMO  PEITO PERUREQUEI (Cód: )</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>SALG</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>SAL PCHURR FAVORITO  (Cód: )</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>SAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>MILHO PIPOCA YOKI  PREMIUM (Cód: )</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>MILHO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>FAROFA YOKI  TRAD (Cód: )</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>FAROFA</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>MINI PACOCA PACOQUITA  TRAD (Cód: )</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>MINI</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>SABAO EM BARRA MINUANO  NEUTRO (Cód: )</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>SABAO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>DETERG LIQ MINUANO  MARINE (Cód: )</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>DETERG</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>PAPRICA DOCE TEMPERE  (Cód: )</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>PAPRICA</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>CHIMICHURRI TEMPERE  (Cód: )</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>CHIMICHURRI</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>CHIMICHURRI TEMPERE  (Cód: )</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>CHIMICHURRI</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>PAPRICA DOCE TEMPERE  (Cód: )</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>PAPRICA</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>ESPONJA MULTIUSO SCOTCH BRITE C (Cód: )</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ESPONJA</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>AZEITE TP UNICO PORT ANDORINHA PURO (Cód: )</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>AZEITE</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>ARROZ TIO URBANO  (Cód: )</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ARROZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>FEIJAO CARIOCA KICALDO  (Cód: )</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>FEIJAO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>AGUA MINERAL SGAS CRYSTAL  (Cód: )</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>AGUA</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>ARROZ CAMIL  (Cód: )</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ARROZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>PAPEL HIG NEVE FD   COMPAC (Cód: )</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>PAPEL</t>
         </is>
       </c>
     </row>
